--- a/NVIS Mess.xlsx
+++ b/NVIS Mess.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Documents\NEAP\Ecosystem-Typology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9491ACFC-DC93-43CC-9DEA-B197712897C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF5941D-DF44-4923-BD3B-C481A7C8D088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{BB4F5580-C074-4756-AC8F-A18EC9E4ED79}"/>
   </bookViews>
@@ -36,53 +36,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={349F7F18-896A-411F-BFDD-ABC615EF3291}</author>
-    <author>tc={0AA0E544-9A92-4E2C-BF15-4D7206607E25}</author>
-    <author>tc={202A85D0-80B2-4FA9-8BDA-76A95C63FB13}</author>
-    <author>tc={31B751FC-95F3-49BA-98CE-C32808278720}</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{349F7F18-896A-411F-BFDD-ABC615EF3291}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Column will be deleted from final version</t>
-      </text>
-    </comment>
-    <comment ref="B1" authorId="1" shapeId="0" xr:uid="{0AA0E544-9A92-4E2C-BF15-4D7206607E25}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Column will be deleted from final version</t>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="2" shapeId="0" xr:uid="{202A85D0-80B2-4FA9-8BDA-76A95C63FB13}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Column will be deleted from final version</t>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="3" shapeId="0" xr:uid="{31B751FC-95F3-49BA-98CE-C32808278720}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Column will be deleted from final version</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="175">
   <si>
     <t>F2.7 Ephemeral salt lakes</t>
   </si>
@@ -604,13 +559,16 @@
   </si>
   <si>
     <t>MVG_name</t>
+  </si>
+  <si>
+    <t>Not in NVIS raster</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -632,12 +590,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -695,9 +647,7 @@
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Macfarlane, Craig (Environment, Floreat)" id="{6FCF450E-1C70-484F-A0F1-372FEE5F98C4}" userId="S::mac508@csiro.au::44651e22-f133-4a68-8459-bbcd09b63482" providerId="AD"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1015,23 +965,6 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A1" dT="2024-02-15T01:18:47.72" personId="{6FCF450E-1C70-484F-A0F1-372FEE5F98C4}" id="{349F7F18-896A-411F-BFDD-ABC615EF3291}">
-    <text>Column will be deleted from final version</text>
-  </threadedComment>
-  <threadedComment ref="B1" dT="2024-02-15T01:19:03.67" personId="{6FCF450E-1C70-484F-A0F1-372FEE5F98C4}" id="{0AA0E544-9A92-4E2C-BF15-4D7206607E25}">
-    <text>Column will be deleted from final version</text>
-  </threadedComment>
-  <threadedComment ref="C1" dT="2024-02-15T01:19:18.27" personId="{6FCF450E-1C70-484F-A0F1-372FEE5F98C4}" id="{202A85D0-80B2-4FA9-8BDA-76A95C63FB13}">
-    <text>Column will be deleted from final version</text>
-  </threadedComment>
-  <threadedComment ref="D1" dT="2024-02-15T01:19:32.56" personId="{6FCF450E-1C70-484F-A0F1-372FEE5F98C4}" id="{31B751FC-95F3-49BA-98CE-C32808278720}">
-    <text>Column will be deleted from final version</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFA3068A-63B1-4B7A-9F90-65517AFDF1FF}">
   <dimension ref="A1:F20"/>
@@ -1174,17 +1107,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F2876F2-5D11-45FB-9843-78800D879A6C}">
-  <dimension ref="A1:D85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F2876F2-5D11-45FB-9843-78800D879A6C}">
+  <dimension ref="A1:E85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="89.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="55.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1411,7 +1345,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -1425,7 +1359,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -1438,8 +1372,11 @@
       <c r="D18" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>67</v>
       </c>
@@ -1453,7 +1390,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>70</v>
       </c>
@@ -1467,7 +1404,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>72</v>
       </c>
@@ -1481,7 +1418,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>74</v>
       </c>
@@ -1495,7 +1432,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -1508,8 +1445,11 @@
       <c r="D23" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>78</v>
       </c>
@@ -1523,7 +1463,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>80</v>
       </c>
@@ -1537,7 +1477,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>81</v>
       </c>
@@ -1551,7 +1491,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>85</v>
       </c>
@@ -1565,7 +1505,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>87</v>
       </c>
@@ -1579,7 +1519,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>88</v>
       </c>
@@ -1593,7 +1533,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>89</v>
       </c>
@@ -1607,7 +1547,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>92</v>
       </c>
@@ -1621,7 +1561,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>94</v>
       </c>
@@ -2339,6 +2279,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>